--- a/src/main/resources/files/PCSESingleChoiceTemplateV1.0.xlsx
+++ b/src/main/resources/files/PCSESingleChoiceTemplateV1.0.xlsx
@@ -26,7 +26,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">                                               ‘一站成公’系统
+      <t xml:space="preserve">                                               ‘一战成公’系统
                                 </t>
     </r>
     <r>
@@ -1055,14 +1055,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1085,24 +1085,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1115,24 +1106,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1155,14 +1130,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1177,7 +1153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1185,7 +1161,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1237,13 +1237,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,169 +1411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,6 +1547,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1579,30 +1603,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1611,10 +1611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1623,10 +1623,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1635,121 +1635,121 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2165,7 +2165,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2904,8 +2904,11 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>"题目"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5 F6:F1048576">
-      <formula1>"行测,申论"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5 G6:G1048576">
+      <formula1>"A,B,C,D"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+      <formula1>"选项C"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>"选项A"</formula1>
@@ -2913,23 +2916,20 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
       <formula1>"解析"</formula1>
     </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
+      <formula1>"选项D"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"选项B"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
-      <formula1>"选项C"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
-      <formula1>"选项D"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1">
+      <formula1>"正确答案"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
       <formula1>"题目类型"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1">
-      <formula1>"正确答案"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5 G6:G1048576">
-      <formula1>"A,B,C,D"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5 F6:F1048576">
+      <formula1>"行测,申论"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2990,8 +2990,11 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>"题目"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"行测,申论"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"A,B,C,D"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+      <formula1>"选项C"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>"选项A"</formula1>
@@ -2999,23 +3002,20 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
       <formula1>"解析"</formula1>
     </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
+      <formula1>"选项D"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"选项B"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
-      <formula1>"选项C"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
-      <formula1>"选项D"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1">
+      <formula1>"正确答案"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
       <formula1>"题目类型"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1">
-      <formula1>"正确答案"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
-      <formula1>"A,B,C,D"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>"行测,申论"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
